--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatK.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatK.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -200,12 +205,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,13 +302,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,9 +393,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,22 +637,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -635,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -649,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -663,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -677,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -691,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -712,24 +757,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -769,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -786,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -804,7 +849,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -822,7 +867,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -840,7 +885,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -858,7 +903,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -876,7 +921,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -894,7 +939,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -912,7 +957,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -929,7 +974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -946,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -963,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -980,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -997,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1014,7 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1038,28 +1083,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
-    <col min="7" max="7" width="47.21875" customWidth="1"/>
-    <col min="8" max="8" width="53.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1100,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
@@ -1135,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -1172,7 +1217,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -1209,7 +1254,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -1246,7 +1291,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -1283,7 +1328,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>50</v>
       </c>
@@ -1320,7 +1365,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -1357,7 +1402,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
@@ -1394,7 +1439,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1431,7 +1476,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
@@ -1468,7 +1513,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +1550,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>50</v>
       </c>
@@ -1542,7 +1587,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>50</v>
       </c>
@@ -1579,7 +1624,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -1649,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
@@ -1690,29 +1735,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="8" width="60.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
@@ -1779,7 +1824,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>58</v>
@@ -1796,7 +1841,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatK.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatK.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="61">
   <si>
     <t>TC</t>
   </si>
@@ -183,9 +183,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -207,13 +204,13 @@
     <t>Monthly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +299,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -757,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1083,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>27</v>
@@ -1162,19 +1159,19 @@
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>6</v>
@@ -1188,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>27</v>
@@ -1197,19 +1194,19 @@
         <v>51</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>6</v>
@@ -1225,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>27</v>
@@ -1234,19 +1231,19 @@
         <v>51</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
@@ -1262,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -1271,19 +1268,19 @@
         <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
@@ -1299,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -1308,19 +1305,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>6</v>
@@ -1336,7 +1333,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -1345,19 +1342,19 @@
         <v>51</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
@@ -1373,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>27</v>
@@ -1382,19 +1379,19 @@
         <v>51</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1410,7 +1407,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>27</v>
@@ -1419,19 +1416,19 @@
         <v>51</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>6</v>
@@ -1447,7 +1444,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
@@ -1456,19 +1453,19 @@
         <v>51</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>6</v>
@@ -1484,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>27</v>
@@ -1493,19 +1490,19 @@
         <v>51</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>6</v>
@@ -1521,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>27</v>
@@ -1530,19 +1527,19 @@
         <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>6</v>
@@ -1558,7 +1555,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>27</v>
@@ -1567,19 +1564,19 @@
         <v>51</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>6</v>
@@ -1595,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>27</v>
@@ -1604,19 +1601,19 @@
         <v>51</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>6</v>
@@ -1632,7 +1629,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>27</v>
@@ -1641,19 +1638,19 @@
         <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>6</v>
@@ -1667,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>27</v>
@@ -1676,19 +1673,19 @@
         <v>51</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>6</v>
@@ -1702,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>27</v>
@@ -1711,19 +1708,19 @@
         <v>51</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>6</v>
@@ -1735,10 +1732,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1809,7 +1806,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>27</v>
@@ -1818,22 +1815,22 @@
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1841,7 +1838,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
